--- a/결과물.xlsx
+++ b/결과물.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y34d\workplace\2019-01-16\RECproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimyoungdong/workplace/REC/2019-03-05/RECproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A85D1D-0531-44E5-9AFD-CECFCEBF23C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226FB2A9-870F-0346-AD74-D8E515CEADEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,14 +57,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -96,7 +96,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,7 +114,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -151,7 +151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -350,7 +350,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495786488"/>
@@ -412,7 +412,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495790096"/>
@@ -453,7 +453,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -467,7 +467,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -504,7 +504,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -703,7 +703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="545737600"/>
@@ -765,7 +765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="545739568"/>
@@ -806,7 +806,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -820,7 +820,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -857,7 +857,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1056,7 +1056,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="545744160"/>
@@ -1118,7 +1118,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="545736944"/>
@@ -1159,7 +1159,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1173,7 +1173,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1185,6 +1185,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Compatibility</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1210,7 +1240,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1409,7 +1439,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="651775640"/>
@@ -1471,7 +1501,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="651774656"/>
@@ -1512,7 +1542,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1526,7 +1556,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1563,7 +1593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1762,7 +1792,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495783536"/>
@@ -1824,7 +1854,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495779928"/>
@@ -1865,7 +1895,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1879,7 +1909,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1891,6 +1921,50 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Compatibility</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1903,20 +1977,34 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2115,7 +2203,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="352930920"/>
@@ -2177,7 +2265,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="352932232"/>
@@ -2218,7 +2306,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2232,7 +2320,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2269,7 +2357,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2468,7 +2556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="500201272"/>
@@ -2530,7 +2618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501171096"/>
@@ -2571,7 +2659,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2585,7 +2673,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2622,7 +2710,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2821,7 +2909,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="655022640"/>
@@ -2883,7 +2971,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="655024280"/>
@@ -2924,7 +3012,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2938,7 +3026,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2950,6 +3038,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Compatibility</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2975,7 +3093,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3174,7 +3292,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="659953216"/>
@@ -3236,7 +3354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="649053600"/>
@@ -3277,7 +3395,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3291,7 +3409,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3328,7 +3446,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3527,7 +3645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541214760"/>
@@ -3589,7 +3707,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541214104"/>
@@ -3630,7 +3748,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3644,7 +3762,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3681,7 +3799,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3880,7 +3998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="545729728"/>
@@ -3942,7 +4060,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="545729400"/>
@@ -3983,7 +4101,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3997,7 +4115,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4009,6 +4127,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Compatibility</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4034,7 +4182,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4233,7 +4381,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="653384048"/>
@@ -4295,7 +4443,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="653383720"/>
@@ -4336,7 +4484,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11457,7 +11605,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11755,13 +11903,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="X48" sqref="X48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11778,7 +11926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -11795,7 +11943,7 @@
         <v>0.69070796460176986</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0.04</v>
       </c>
@@ -11809,7 +11957,7 @@
         <v>0.6778761061946903</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>0.06</v>
       </c>
@@ -11823,7 +11971,7 @@
         <v>0.6654867256637168</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0.08</v>
       </c>
@@ -11837,7 +11985,7 @@
         <v>0.65530973451327434</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0.1</v>
       </c>
@@ -11851,7 +11999,7 @@
         <v>0.63584070796460179</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0.12</v>
       </c>
@@ -11865,7 +12013,7 @@
         <v>0.61991150442477871</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0.14000000000000001</v>
       </c>
@@ -11879,7 +12027,7 @@
         <v>0.61548672566371676</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0.16</v>
       </c>
@@ -11893,7 +12041,7 @@
         <v>0.61283185840707965</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0.18</v>
       </c>
@@ -11907,7 +12055,7 @@
         <v>0.61061946902654862</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>0.2</v>
       </c>
@@ -11921,7 +12069,7 @@
         <v>0.60663716814159296</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -11938,7 +12086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -11955,7 +12103,7 @@
         <v>0.69026548672566368</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0.04</v>
       </c>
@@ -11969,7 +12117,7 @@
         <v>0.67256637168141598</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0.06</v>
       </c>
@@ -11983,7 +12131,7 @@
         <v>0.6628318584070797</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0.08</v>
       </c>
@@ -11997,7 +12145,7 @@
         <v>0.64203539823008848</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0.1</v>
       </c>
@@ -12011,7 +12159,7 @@
         <v>0.63539823008849561</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0.12</v>
       </c>
@@ -12025,7 +12173,7 @@
         <v>0.62477876106194685</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0.14000000000000001</v>
       </c>
@@ -12039,7 +12187,7 @@
         <v>0.61991150442477871</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0.16</v>
       </c>
@@ -12053,7 +12201,7 @@
         <v>0.61769911504424779</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0.18</v>
       </c>
@@ -12067,7 +12215,7 @@
         <v>0.61017699115044244</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0.2</v>
       </c>
@@ -12081,7 +12229,7 @@
         <v>0.60989800000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -12098,7 +12246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -12115,7 +12263,7 @@
         <v>0.69336283185840708</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0.04</v>
       </c>
@@ -12129,7 +12277,7 @@
         <v>0.67964601769911503</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>0.06</v>
       </c>
@@ -12143,7 +12291,7 @@
         <v>0.67256637168141598</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>0.08</v>
       </c>
@@ -12157,7 +12305,7 @@
         <v>0.65132743362831858</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>0.1</v>
       </c>
@@ -12171,7 +12319,7 @@
         <v>0.6415929203539823</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0.12</v>
       </c>
@@ -12185,7 +12333,7 @@
         <v>0.62787610619469025</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>0.14000000000000001</v>
       </c>
@@ -12202,7 +12350,7 @@
         <v>0.62964601769911499</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0.16</v>
       </c>
@@ -12216,7 +12364,7 @@
         <v>0.61637168141592924</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>0.18</v>
       </c>
@@ -12230,7 +12378,7 @@
         <v>0.61637168141592924</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>0.2</v>
       </c>
@@ -12244,7 +12392,7 @@
         <v>0.62123893805309738</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -12261,7 +12409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -12278,7 +12426,7 @@
         <v>0.71238938053097345</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>0.04</v>
       </c>
@@ -12292,7 +12440,7 @@
         <v>0.69690265486725667</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>0.06</v>
       </c>
@@ -12306,7 +12454,7 @@
         <v>0.68451327433628317</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>0.08</v>
       </c>
@@ -12320,7 +12468,7 @@
         <v>0.67300884955752216</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>0.1</v>
       </c>
@@ -12334,7 +12482,7 @@
         <v>0.66504424778761062</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>0.12</v>
       </c>
@@ -12348,7 +12496,7 @@
         <v>0.65707964601769908</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>0.14000000000000001</v>
       </c>
@@ -12362,7 +12510,7 @@
         <v>0.63982300884955756</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>0.16</v>
       </c>
@@ -12376,7 +12524,7 @@
         <v>0.64247787610619467</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>0.18</v>
       </c>
@@ -12390,7 +12538,7 @@
         <v>0.64070796460176993</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>0.2</v>
       </c>

--- a/결과물.xlsx
+++ b/결과물.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimyoungdong/workplace/REC/2019-03-05/RECproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226FB2A9-870F-0346-AD74-D8E515CEADEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34692F4-A70E-7C44-BEC3-C55F266A3FC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>표준편차</t>
   </si>
@@ -48,12 +48,15 @@
   <si>
     <t>30</t>
   </si>
+  <si>
+    <t>Compatibility</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +71,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,8 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2023,7 +2035,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>예정</c:v>
+                  <c:v>Compatibility</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3112,7 +3124,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>예정</c:v>
+                  <c:v>Compatibility</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4201,7 +4213,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>예정</c:v>
+                  <c:v>Compatibility</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11208,15 +11220,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
+      <xdr:colOff>250190</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>116840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11904,7 +11916,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11922,8 +11934,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -12083,7 +12095,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -12243,7 +12255,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
